--- a/Planning_Methods/DataNeeds.xlsx
+++ b/Planning_Methods/DataNeeds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.salkgundersen\Documents\GitHub_Repos\UtahLake_CNPMassBalance\Planning&amp;Methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.salkgundersen\Documents\GitHub_Repos\UtahLake_CNPMassBalance\Planning_Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E492D1-DBCB-4831-9BB3-1228E7DD6AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013C8BCA-8BF9-4261-AC67-AA1B8C5A3457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36210" yWindow="1635" windowWidth="23250" windowHeight="12570" xr2:uid="{1E3BBE6F-4AB7-4812-9983-36F4C365C34D}"/>
+    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{1E3BBE6F-4AB7-4812-9983-36F4C365C34D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
